--- a/dff.xlsx
+++ b/dff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="S8 2023 Master Spreadsheet" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="S8 Dynasty Tier List" sheetId="3" r:id="rId3"/>
     <sheet name="S8 Start Roster" sheetId="4" r:id="rId4"/>
     <sheet name="S8 End Roster" sheetId="5" r:id="rId5"/>
-    <sheet name="Trade Log" sheetId="6" r:id="rId6"/>
+    <sheet name="Roster Base Copy" sheetId="6" r:id="rId6"/>
+    <sheet name="Trade Log" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S8 Dynasty Tier List'!$A$1:$F$512</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Trade Log'!$A$2:$K$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Trade Log'!$A$2:$K$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1533">
   <si>
     <t>Links to Spreadsheets</t>
   </si>
@@ -8320,31 +8321,12 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="J23:J24"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="K18:K19"/>
@@ -8356,44 +8338,63 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="B49:B51"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -21190,10 +21191,10 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="K74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22791,7 +22792,7 @@
       <c r="F80" s="134"/>
       <c r="G80" s="109"/>
       <c r="H80" s="134"/>
-      <c r="I80" s="136"/>
+      <c r="I80" s="134"/>
       <c r="J80" s="146"/>
       <c r="K80" s="134"/>
       <c r="L80" s="109"/>
@@ -22948,10 +22949,1783 @@
     <mergeCell ref="B63:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:P86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M80" sqref="M80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" style="160" customWidth="1"/>
+    <col min="2" max="2" width="5" style="160" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="160" customWidth="1"/>
+    <col min="4" max="6" width="25.08984375" style="160" customWidth="1"/>
+    <col min="7" max="7" width="1.6328125" style="160" customWidth="1"/>
+    <col min="8" max="10" width="25.08984375" style="160" customWidth="1"/>
+    <col min="11" max="11" width="26" style="160" customWidth="1"/>
+    <col min="12" max="12" width="1.6328125" style="160" customWidth="1"/>
+    <col min="13" max="15" width="25.08984375" style="160" customWidth="1"/>
+    <col min="16" max="16" width="26" style="160" customWidth="1"/>
+    <col min="17" max="29" width="12.6328125" style="160" customWidth="1"/>
+    <col min="30" max="16384" width="12.6328125" style="160"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A1" s="195"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="194" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="188" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="193" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="87" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="83" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A3" s="189" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B3" s="164"/>
+      <c r="C3" s="99" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="90" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="100" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P3" s="94" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13" customHeight="1">
+      <c r="A4" s="196" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B4" s="197"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F4" s="103"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="104" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O4" s="103" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P4" s="104"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106">
+        <f>COUNTA(C6:C86)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="106">
+        <f>COUNTA(D6:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="107">
+        <f>COUNTA(E6:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="106">
+        <f>COUNTA(F6:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="106">
+        <f>COUNTA(H6:H86)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="106">
+        <f>COUNTA(I6:I86)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="106">
+        <f>COUNTA(J6:J86)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="106">
+        <f>COUNTA(K6:K86)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="75"/>
+      <c r="M5" s="106">
+        <f>COUNTA(M6:M86)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="106">
+        <f>COUNTA(N6:N86)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="108">
+        <f>COUNTA(O6:O86)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="106">
+        <f>COUNTA(P6:P86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.5" customHeight="1" thickTop="1">
+      <c r="A6" s="190" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B6" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C6" s="146"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="135"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="135"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="135"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A9" s="164"/>
+      <c r="B9" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C9" s="143"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="112"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="112"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="112"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A12" s="164"/>
+      <c r="B12" s="184" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="113"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="113"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="113"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="113"/>
+    </row>
+    <row r="16" spans="1:16" ht="9" customHeight="1">
+      <c r="A16" s="118"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A17" s="186" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B17" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="135"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="135"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="135"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="135"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A21" s="164"/>
+      <c r="B21" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C21" s="143"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="112"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="112"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="112"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="112"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="112"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A26" s="164"/>
+      <c r="B26" s="184" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="113"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="113"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="113"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="113"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="127"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="127"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="127"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="113"/>
+    </row>
+    <row r="34" spans="1:16" ht="9" customHeight="1">
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="121"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A35" s="192" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B35" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="135"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A36" s="164"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="135"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="135"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A38" s="164"/>
+      <c r="B38" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="112"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="112"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="143"/>
+      <c r="P40" s="130"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="143"/>
+      <c r="P41" s="130"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A42" s="164"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="112"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A43" s="164"/>
+      <c r="B43" s="184" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C43" s="116"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="113"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="113"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A45" s="164"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="113"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A46" s="164"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="113"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A47" s="164"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="113"/>
+    </row>
+    <row r="48" spans="1:16" ht="9" customHeight="1">
+      <c r="A48" s="118"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="121"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A49" s="186" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B49" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C49" s="146"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="135"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A50" s="164"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="135"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A51" s="164"/>
+      <c r="B51" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C51" s="143"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="112"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A52" s="164"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="143"/>
+      <c r="P52" s="112"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A53" s="164"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="109"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="131"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A54" s="164"/>
+      <c r="B54" s="184" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C54" s="116"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="113"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A55" s="164"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="113"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A56" s="164"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="113"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A57" s="164"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="115"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="113"/>
+    </row>
+    <row r="58" spans="1:16" ht="9" customHeight="1">
+      <c r="A58" s="118"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="121"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A59" s="186" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B59" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C59" s="146"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="146"/>
+      <c r="P59" s="135"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A60" s="164"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="146"/>
+      <c r="P60" s="135"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A61" s="164"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="134"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="146"/>
+      <c r="P61" s="135"/>
+    </row>
+    <row r="62" spans="1:16" ht="9" customHeight="1">
+      <c r="A62" s="118"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="121"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A63" s="186" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B63" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C63" s="146"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="109"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="135"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A64" s="164"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="135"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A65" s="164"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="146"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="146"/>
+      <c r="P65" s="135"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A66" s="164"/>
+      <c r="B66" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C66" s="143"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="143"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="143"/>
+      <c r="P66" s="112"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A67" s="164"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="143"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="109"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="112"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A68" s="164"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="143"/>
+      <c r="P68" s="130"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A69" s="164"/>
+      <c r="B69" s="184" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C69" s="116"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="113"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A70" s="164"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="116"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="109"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="115"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="113"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A71" s="164"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="115"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="109"/>
+      <c r="M71" s="115"/>
+      <c r="N71" s="115"/>
+      <c r="O71" s="116"/>
+      <c r="P71" s="127"/>
+    </row>
+    <row r="72" spans="1:16" ht="9" customHeight="1">
+      <c r="A72" s="118"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="122"/>
+      <c r="N72" s="122"/>
+      <c r="O72" s="120"/>
+      <c r="P72" s="121"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A73" s="186" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B73" s="187" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C73" s="146"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="109"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="146"/>
+      <c r="P73" s="135"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A74" s="164"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="146"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="134"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="134"/>
+      <c r="N74" s="134"/>
+      <c r="O74" s="146"/>
+      <c r="P74" s="135"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A75" s="164"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="134"/>
+      <c r="L75" s="109"/>
+      <c r="M75" s="134"/>
+      <c r="N75" s="134"/>
+      <c r="O75" s="146"/>
+      <c r="P75" s="135"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A76" s="164"/>
+      <c r="B76" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C76" s="143"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="111"/>
+      <c r="N76" s="111"/>
+      <c r="O76" s="143"/>
+      <c r="P76" s="112"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A77" s="164"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="143"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="143"/>
+      <c r="P77" s="112"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A78" s="164"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="143"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
+      <c r="O78" s="143"/>
+      <c r="P78" s="112"/>
+    </row>
+    <row r="79" spans="1:16" ht="9" customHeight="1">
+      <c r="A79" s="118"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="122"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="109"/>
+      <c r="M79" s="122"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="121"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A80" s="186" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B80" s="191" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C80" s="146"/>
+      <c r="D80" s="135"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="134"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="134"/>
+      <c r="O80" s="146"/>
+      <c r="P80" s="135"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A81" s="164"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="146"/>
+      <c r="K81" s="134"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="134"/>
+      <c r="O81" s="146"/>
+      <c r="P81" s="135"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A82" s="164"/>
+      <c r="B82" s="185" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C82" s="143"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="143"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="111"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="143"/>
+      <c r="P82" s="112"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A83" s="164"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="143"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="109"/>
+      <c r="M83" s="111"/>
+      <c r="N83" s="111"/>
+      <c r="O83" s="143"/>
+      <c r="P83" s="131"/>
+    </row>
+    <row r="84" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A84" s="164"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="111"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="143"/>
+      <c r="K84" s="111"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="111"/>
+      <c r="N84" s="111"/>
+      <c r="O84" s="143"/>
+      <c r="P84" s="112"/>
+    </row>
+    <row r="85" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A85" s="162"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="138"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="109"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="143"/>
+      <c r="J85" s="143"/>
+      <c r="K85" s="143"/>
+      <c r="L85" s="109"/>
+      <c r="M85" s="143"/>
+      <c r="N85" s="143"/>
+      <c r="O85" s="143"/>
+      <c r="P85" s="143"/>
+    </row>
+    <row r="86" spans="1:16" ht="9" customHeight="1">
+      <c r="A86" s="118"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="140"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="139"/>
+      <c r="N86" s="139"/>
+      <c r="O86" s="139"/>
+      <c r="P86" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A17:A33"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B63:B65"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/dff.xlsx
+++ b/dff.xlsx
@@ -8325,10 +8325,10 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="N23:N24"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="L23:L24"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B53:B56"/>
@@ -8350,11 +8350,11 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="L23:L24"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N2:N3"/>
@@ -8363,7 +8363,6 @@
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="I23:I24"/>
@@ -8371,30 +8370,31 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -21165,8 +21165,8 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A63:A71"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B59:B61"/>
     <mergeCell ref="B26:B33"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B12:B15"/>
@@ -21191,10 +21191,10 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="K74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="J72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22934,8 +22934,8 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A63:A71"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B59:B61"/>
     <mergeCell ref="B26:B33"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B12:B15"/>
@@ -22979,8 +22979,8 @@
     <col min="12" max="12" width="1.6328125" style="160" customWidth="1"/>
     <col min="13" max="15" width="25.08984375" style="160" customWidth="1"/>
     <col min="16" max="16" width="26" style="160" customWidth="1"/>
-    <col min="17" max="29" width="12.6328125" style="160" customWidth="1"/>
-    <col min="30" max="16384" width="12.6328125" style="160"/>
+    <col min="17" max="40" width="12.6328125" style="160" customWidth="1"/>
+    <col min="41" max="16384" width="12.6328125" style="160"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.5" customHeight="1">
@@ -24706,8 +24706,8 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A63:A71"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B59:B61"/>
     <mergeCell ref="B26:B33"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B12:B15"/>
